--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4055438.517332109</v>
+        <v>4053061.890384743</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>352.9610168923523</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>136.5758253593187</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>188.4649415276189</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>108.0165900216666</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>330.353704028207</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>13.18609391402018</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>66.40055121331467</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>84.77350972403336</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>46.13346796446942</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542834</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>47.65883542934973</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.3178054178684</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603491</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018857</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1585.174086820819</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.211569880407</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>859.685290191162</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4364,16 +4364,16 @@
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.31341879663</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1585.174086820819</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4389,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>1057.327935297105</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M3" t="n">
-        <v>1420.589954256325</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1807.87508285327</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2139.945518029432</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.8272960668249</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C4" t="n">
-        <v>473.8272960668249</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>473.8272960668249</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4516,22 +4516,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1199.278586599114</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>910.1602491029515</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>655.4757608970647</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>655.4757608970647</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>655.4757608970647</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y4" t="n">
-        <v>655.4757608970647</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1975.313418796631</v>
+        <v>603.6036480119278</v>
       </c>
       <c r="C5" t="n">
-        <v>1606.350901856219</v>
+        <v>494.4959813233757</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.085203249469</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E5" t="n">
-        <v>862.2969506512243</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>451.3110458616167</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,55 +4562,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796631</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.313418796631</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.313418796631</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1975.313418796631</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y5" t="n">
-        <v>1975.313418796631</v>
+        <v>990.2034880760496</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751764</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>938.9442613508774</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C7" t="n">
-        <v>770.0080784229705</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106347</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>76.715959553122</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W7" t="n">
-        <v>1569.374856222664</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X7" t="n">
-        <v>1341.385305324647</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="Y7" t="n">
-        <v>1120.592726181117</v>
+        <v>383.6188956900843</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>428.1223321592641</v>
+        <v>884.1849331278593</v>
       </c>
       <c r="C8" t="n">
-        <v>428.1223321592641</v>
+        <v>884.1849331278593</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251366</v>
+        <v>525.9192345211088</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251366</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331018</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230818</v>
@@ -4820,34 +4820,34 @@
         <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2515.739865809783</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2515.739865809783</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="U8" t="n">
-        <v>2262.158805073962</v>
+        <v>1975.313418796632</v>
       </c>
       <c r="V8" t="n">
-        <v>1931.095917730392</v>
+        <v>1644.250531453061</v>
       </c>
       <c r="W8" t="n">
-        <v>1578.327262460278</v>
+        <v>1644.250531453061</v>
       </c>
       <c r="X8" t="n">
-        <v>1204.861504199198</v>
+        <v>1270.784773191981</v>
       </c>
       <c r="Y8" t="n">
-        <v>814.722172223386</v>
+        <v>1270.784773191981</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735144</v>
       </c>
       <c r="L9" t="n">
-        <v>801.944955774447</v>
+        <v>854.8429682049863</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330612</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657496</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378427</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255069</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431138</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452035</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5741,22 +5741,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637309</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380899</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.906968710183</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.906968710183</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.906968710183</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>426.0170212122727</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683297</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6695,46 +6695,46 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852888</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192832</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111739</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797191</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7737,16 +7737,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>35.9162744517248</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,16 +8301,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9556134883061418</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>193.3273467878344</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,13 +8532,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>30.3692565058933</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440046</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624193</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194228</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>612069.3333826402</v>
+        <v>612069.33338264</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642832</v>
@@ -26326,34 +26326,34 @@
         <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
         <v>807146.5996900059</v>
       </c>
       <c r="J2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.5996900058</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="L2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="N2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.599690006</v>
-      </c>
       <c r="P2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.534392701316393e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719715</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719652</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
@@ -26439,22 +26439,22 @@
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.36846171969</v>
+        <v>7507.368461719619</v>
       </c>
       <c r="K4" t="n">
+        <v>7507.36846171961</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.368461719668</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7507.36846171968</v>
+      </c>
+      <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="L4" t="n">
-        <v>7507.368461719627</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.36846171961</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.368461719676</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26470,10 +26470,10 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-519761.6496982256</v>
+        <v>-519761.6496982257</v>
       </c>
       <c r="C6" t="n">
-        <v>594990.1338776941</v>
+        <v>594990.1338776945</v>
       </c>
       <c r="D6" t="n">
-        <v>594990.1338776941</v>
+        <v>594990.1338776939</v>
       </c>
       <c r="E6" t="n">
-        <v>191031.2597798336</v>
+        <v>190996.5218543981</v>
       </c>
       <c r="F6" t="n">
-        <v>698516.7014043793</v>
+        <v>698481.9634789436</v>
       </c>
       <c r="G6" t="n">
-        <v>698516.7014043792</v>
+        <v>698481.9634789436</v>
       </c>
       <c r="H6" t="n">
-        <v>698516.7014043793</v>
+        <v>698481.9634789438</v>
       </c>
       <c r="I6" t="n">
-        <v>698516.7014043791</v>
+        <v>698481.9634789429</v>
       </c>
       <c r="J6" t="n">
-        <v>530911.5235943967</v>
+        <v>530876.7856689615</v>
       </c>
       <c r="K6" t="n">
-        <v>698516.7014043794</v>
+        <v>698481.9634789436</v>
       </c>
       <c r="L6" t="n">
-        <v>698516.7014043797</v>
+        <v>698481.9634789436</v>
       </c>
       <c r="M6" t="n">
-        <v>565909.4076754529</v>
+        <v>565874.6697500168</v>
       </c>
       <c r="N6" t="n">
-        <v>698516.7014043792</v>
+        <v>698481.9634789438</v>
       </c>
       <c r="O6" t="n">
-        <v>698516.7014043792</v>
+        <v>698481.9634789438</v>
       </c>
       <c r="P6" t="n">
-        <v>698516.7014043796</v>
+        <v>698481.9634789438</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26811,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>1.722024728330609</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>84.17287063789325</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>30.11971182447584</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>257.256301749341</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>81.19399874474698</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>166.6458862679171</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>220.1224471232763</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>297.1568603482284</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>77.31874743432493</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193759</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>178.0508199596874</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31674,22 +31674,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31698,22 +31698,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,16 +32315,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157981</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>504.7812948344583</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967487</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>150.7833302198383</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,22 +33500,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>514.695376254093</v>
+        <v>587.1221002143859</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067255</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,28 +33974,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,7 +34220,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34784,7 +34784,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34793,13 +34793,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>285.5958035752572</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
@@ -35021,16 +35021,16 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>367.8869457703467</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>584.5244463807084</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091748</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560636</v>
       </c>
       <c r="L9" t="n">
-        <v>508.7132618620056</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>397.300588787934</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977098</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35337,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35346,10 +35346,10 @@
         <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324648</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>362.64726091244</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.8381222824185</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>23.94570355317166</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>372.0991318096486</v>
+        <v>444.5258557699415</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>23.94570355317166</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236319604</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,7 +37868,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
